--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3981.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3981.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.275401221764013</v>
+        <v>0.7820801138877869</v>
       </c>
       <c r="B1">
-        <v>2.75189517399357</v>
+        <v>1.59805166721344</v>
       </c>
       <c r="C1">
-        <v>5.315048084098596</v>
+        <v>1.67356538772583</v>
       </c>
       <c r="D1">
-        <v>2.962106069221888</v>
+        <v>6.398558616638184</v>
       </c>
       <c r="E1">
-        <v>1.327252338733407</v>
+        <v>3.561268091201782</v>
       </c>
     </row>
   </sheetData>
